--- a/fichiers/gantt.xlsx
+++ b/fichiers/gantt.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26605"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjunia-my.sharepoint.com/personal/heloise_dufour_student_junia_com/Documents/Bureau/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjunia.sharepoint.com/teams/STUDENT_PROJETE-SANTE-SIGNAUX/Shared Documents/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{86912827-EE7C-41E6-8488-1F37BD9DBE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CFEB2C3-DFC6-42EF-BDB1-F97B9A5A580E}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="8_{86912827-EE7C-41E6-8488-1F37BD9DBE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E9CC185-A388-4CC8-925B-5E136BCB3FC5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{15217EDB-1498-47F5-97D9-DB9BC45E71ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Etapes </t>
   </si>
@@ -56,20 +56,59 @@
     <t xml:space="preserve">Etude du marché </t>
   </si>
   <si>
-    <t>Réfléchir à la forme de notre plate-forme</t>
-  </si>
-  <si>
-    <t>Recherche méthodes de traitement</t>
-  </si>
-  <si>
-    <t>Recherches affichage du signal</t>
+    <t>Faire le WBS</t>
+  </si>
+  <si>
+    <t>Faire le diagramme de Gantt</t>
+  </si>
+  <si>
+    <t>Etude bibliographique sur les signaux ECG</t>
+  </si>
+  <si>
+    <t>Etude bibliographique sur les méthodes d'analyse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction du rapport </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan du rapport </t>
+  </si>
+  <si>
+    <t>Rechercher comment mettre les données sur Matlab</t>
+  </si>
+  <si>
+    <t>Recherches interface et banques à utiliser</t>
+  </si>
+  <si>
+    <t>Chercher les méthodes de filtrage</t>
+  </si>
+  <si>
+    <t>Chercher comment charger les données</t>
+  </si>
+  <si>
+    <t>Chercher comment afficher les données</t>
+  </si>
+  <si>
+    <t>Chercher comment analyser les données</t>
+  </si>
+  <si>
+    <t>Codage Matlab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place de la plateforme </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecriture du rapport </t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,7 +132,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -127,11 +166,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,9 +239,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$B$4:$B$8</c:f>
+              <c:f>Feuil1!$B$4:$B$20</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>Note de clarification </c:v>
                 </c:pt>
@@ -204,23 +249,59 @@
                   <c:v>Etude du marché </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Recherche méthodes de traitement</c:v>
+                  <c:v>Faire le WBS</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Recherches affichage du signal</c:v>
+                  <c:v>Faire le diagramme de Gantt</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Réfléchir à la forme de notre plate-forme</c:v>
+                  <c:v>Etude bibliographique sur les signaux ECG</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Etude bibliographique sur les méthodes d'analyse</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Introduction du rapport </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Plan du rapport </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rechercher comment mettre les données sur Matlab</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Recherches interface et banques à utiliser</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Chercher les méthodes de filtrage</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Chercher comment charger les données</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Chercher comment afficher les données</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Chercher comment analyser les données</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Codage Matlab</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Mise en place de la plateforme </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Ecriture du rapport </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$4:$C$8</c:f>
+              <c:f>Feuil1!$C$4:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0" formatCode="m/d/yyyy">
                   <c:v>45069</c:v>
                 </c:pt>
@@ -228,20 +309,56 @@
                   <c:v>45069</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45076</c:v>
+                  <c:v>45069</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45076</c:v>
+                  <c:v>45069</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45076</c:v>
+                  <c:v>45075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45075</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45075</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45075</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45083</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45083</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45083</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45083</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45083</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45083</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9D79-4427-ABCA-24B237DEE29A}"/>
+              <c16:uniqueId val="{00000000-CAF4-48ED-95B6-928C55FCA09C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -261,33 +378,128 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$4:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Note de clarification </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etude du marché </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Faire le WBS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Faire le diagramme de Gantt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Etude bibliographique sur les signaux ECG</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Etude bibliographique sur les méthodes d'analyse</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Introduction du rapport </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Plan du rapport </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rechercher comment mettre les données sur Matlab</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Recherches interface et banques à utiliser</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Chercher les méthodes de filtrage</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Chercher comment charger les données</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Chercher comment afficher les données</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Chercher comment analyser les données</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Codage Matlab</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Mise en place de la plateforme </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Ecriture du rapport </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$4:$D$8</c:f>
+              <c:f>Feuil1!$D$4:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9D79-4427-ABCA-24B237DEE29A}"/>
+              <c16:uniqueId val="{00000001-CAF4-48ED-95B6-928C55FCA09C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -301,11 +513,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1635178912"/>
-        <c:axId val="1635179392"/>
+        <c:axId val="1489627392"/>
+        <c:axId val="1489629792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1635178912"/>
+        <c:axId val="1489627392"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -345,10 +557,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1635179392"/>
+        <c:crossAx val="1489629792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -356,7 +568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1635179392"/>
+        <c:axId val="1489629792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="45069"/>
@@ -405,10 +617,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1635178912"/>
+        <c:crossAx val="1489627392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -453,7 +665,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1014,22 +1226,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>492124</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:colOff>384174</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>155574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>349249</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3">
+        <xdr:cNvPr id="5" name="Graphique 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D48E452-2285-0FE6-A09A-B644FBD2F7C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44DE65FE-885B-B302-5BB4-ABFC56E9929D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1051,7 +1263,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1347,140 +1559,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF76511-8458-49CB-B3EB-F17EE5167E1C}">
-  <dimension ref="B3:E17"/>
+  <dimension ref="B3:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="38.54296875" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:5">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>45069</v>
       </c>
-      <c r="D4" s="3">
-        <v>7</v>
+      <c r="D4" s="4">
+        <v>10</v>
       </c>
       <c r="E4" s="5">
-        <f>D4+C4</f>
-        <v>45076</v>
+        <v>45079</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:5">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5">
         <v>45069</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45069</v>
+      </c>
+      <c r="D6" s="4">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>45081</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5">
-        <f>D5+C5</f>
-        <v>45076</v>
+      <c r="C7" s="5">
+        <v>45069</v>
+      </c>
+      <c r="D7" s="4">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45081</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5">
-        <f>E5</f>
-        <v>45076</v>
-      </c>
-      <c r="D6" s="3">
+    <row r="8" spans="2:5">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45075</v>
+      </c>
+      <c r="D8" s="4">
         <v>6</v>
       </c>
-      <c r="E6" s="5">
-        <f t="shared" ref="E6:E17" si="0">D6+C6</f>
-        <v>45082</v>
+      <c r="E8" s="5">
+        <v>45081</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5">
-        <v>45076</v>
-      </c>
-      <c r="D7" s="3">
+    <row r="9" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45075</v>
+      </c>
+      <c r="D9" s="4">
         <v>6</v>
       </c>
-      <c r="E7" s="5">
-        <v>45082</v>
+      <c r="E9" s="5">
+        <v>45081</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
+    <row r="10" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45075</v>
+      </c>
+      <c r="D10" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="5">
-        <v>45076</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="E10" s="5">
+        <v>45081</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45075</v>
+      </c>
+      <c r="D11" s="4">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5">
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5">
+        <v>150</v>
+      </c>
+      <c r="D12" s="4">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5">
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45075</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5">
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45083</v>
+      </c>
+      <c r="D14" s="4">
         <v>6</v>
       </c>
-      <c r="E8" s="5">
-        <f>D8+C8</f>
-        <v>45082</v>
+      <c r="E14" s="5">
+        <v>45088</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45083</v>
+      </c>
+      <c r="D15" s="4">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5">
+        <v>45088</v>
+      </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
+    <row r="16" spans="2:5">
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45083</v>
+      </c>
+      <c r="D16" s="4">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5">
+        <v>45088</v>
+      </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
+    <row r="17" spans="2:5">
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45083</v>
+      </c>
+      <c r="D17" s="4">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5">
+        <v>45088</v>
+      </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
+    <row r="18" spans="2:5">
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45083</v>
+      </c>
+      <c r="D18" s="4">
+        <v>21</v>
+      </c>
+      <c r="E18" s="5">
+        <v>45104</v>
+      </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C13" s="1"/>
-      <c r="E13" s="1"/>
+    <row r="19" spans="2:5">
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45083</v>
+      </c>
+      <c r="D19" s="4">
+        <v>21</v>
+      </c>
+      <c r="E19" s="5">
+        <v>45104</v>
+      </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C14" s="1"/>
-      <c r="E14" s="1"/>
+    <row r="20" spans="2:5">
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45083</v>
+      </c>
+      <c r="D20" s="4">
+        <v>21</v>
+      </c>
+      <c r="E20" s="5">
+        <v>45104</v>
+      </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E17" s="1"/>
+    <row r="25" spans="2:5">
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1490,8 +1837,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000014C17C6ADE8B45A2625C8205BED930" ma:contentTypeVersion="3" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="df6720809130bd216979a4ec4d829fdf">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ca3465f-92df-44e3-9f59-d9b92e9e57d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="34802d92909eff13a9447bd0fb298cfd" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000014C17C6ADE8B45A2625C8205BED930" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a98ba7503cc85f3c4fbef5ad3da0b49e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ca3465f-92df-44e3-9f59-d9b92e9e57d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="957d32419c98fc37fd195dad975de8bc" ns2:_="">
     <xsd:import namespace="9ca3465f-92df-44e3-9f59-d9b92e9e57d6"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -1537,8 +1884,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1643,7 +1990,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33BE7D91-4145-4899-9A48-D81CBCBFCF42}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4316160E-2AFD-49C1-9BDA-3E632D1C7DAF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
